--- a/GameData/Excel/abnormal.xlsx
+++ b/GameData/Excel/abnormal.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E6E9C3-D1A3-4FD0-BCD5-0D882D2815F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A34A51-08D4-4271-B384-BA4C30E07051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11244" yWindow="4596" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="12024" yWindow="7512" windowWidth="25740" windowHeight="13572" activeTab="1" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="abnormal" sheetId="1" r:id="rId1"/>
+    <sheet name="predict_resource" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
   <si>
     <t>int</t>
   </si>
@@ -388,6 +389,155 @@
   </si>
   <si>
     <t>icon_abnormal_dot_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_predict_resource_etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버프 해제 </t>
+  </si>
+  <si>
+    <t>buff_dispel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디버프 해제 </t>
+  </si>
+  <si>
+    <t>debuff_dispel</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 감소 </t>
+  </si>
+  <si>
+    <t>ap_stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">피해 확산 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">디버프 저항률 감소 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">디버프 적중률 감소 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">계수 감소 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">회피율 감소 </t>
+  </si>
+  <si>
+    <t>icon_predict_resource_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반격 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 증가 </t>
+  </si>
+  <si>
+    <t>ap_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디버프 저항률 증가 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">디버프 적중률 증가 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">계수 증가 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">회피율 증가 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">피해 무효화 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">피해량 일부 반사_비율 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">피해량 일부 반사 </t>
+  </si>
+  <si>
+    <t>icon_predict_resource_cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">행동 무효화 </t>
+  </si>
+  <si>
+    <t>action_cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도발  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">기절 </t>
+  </si>
+  <si>
+    <t>icon_predict_resource_armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방어도 감소 </t>
+  </si>
+  <si>
+    <t>armor_down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어도 </t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">체력 회복 효과_지속 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력 회복 효과 </t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대미지 타입 효과_지속 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">대미지 가함 </t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>화면에 표시할 ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 예시 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict_resource_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict_resource_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
@@ -1755,4 +1905,710 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778763CB-058A-493E-8E8A-851F3B9DA903}">
+  <dimension ref="A1:D178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>101</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>201</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>202</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>301</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>302</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>401</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>402</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>403</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>501</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>502</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>503</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>504</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>505</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>506</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>507</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>508</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>509</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>601</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>602</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>603</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>604</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>605</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>606</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>701</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>701</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11"/>
+      <c r="C148" s="11"/>
+    </row>
+    <row r="149" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11"/>
+      <c r="C149" s="11"/>
+    </row>
+    <row r="150" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11"/>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B157" s="6"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameData/Excel/abnormal.xlsx
+++ b/GameData/Excel/abnormal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A34A51-08D4-4271-B384-BA4C30E07051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68B29C-A478-45DD-BBD9-8E4A149DEC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12024" yWindow="7512" windowWidth="25740" windowHeight="13572" activeTab="1" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="15825" windowHeight="15585" activeTab="1" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="abnormal" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
   <si>
     <t>int</t>
   </si>
@@ -392,153 +392,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>buff_dispel</t>
+  </si>
+  <si>
+    <t>debuff_dispel</t>
+  </si>
+  <si>
+    <t>ap_stop</t>
+  </si>
+  <si>
+    <t>ap_up</t>
+  </si>
+  <si>
+    <t>action_cancel</t>
+  </si>
+  <si>
+    <t>armor_down</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>화면에 표시할 ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict_resource_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>fusion_level_up</t>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot_amor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_up_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_down_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>invalid_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_proportion_given_damage</t>
+  </si>
+  <si>
+    <t>heal_proportion_taken_damage</t>
+  </si>
+  <si>
+    <t>damage_proportion_overheal</t>
+  </si>
+  <si>
+    <t>give_damage_up_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_down_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_true_damage_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 가함 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 감소 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합 레벨업 (value_1 = 레벨업 수치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_지속 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발  (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격 (피격 시 피해를 준 대상에게 자신 공격력 비례 피해, value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 방어도 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 감소 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 감소 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 회복량 비례 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력, 피해감소 무시 Damage Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_predict_resource_attack</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_cc</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_heal</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_armor</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_buff</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_debuff</t>
+  </si>
+  <si>
     <t>icon_predict_resource_etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">버프 해제 </t>
-  </si>
-  <si>
-    <t>buff_dispel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">디버프 해제 </t>
-  </si>
-  <si>
-    <t>debuff_dispel</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 감소 </t>
-  </si>
-  <si>
-    <t>ap_stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">피해 확산 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">디버프 저항률 감소 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">디버프 적중률 감소 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">계수 감소 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">회피율 감소 </t>
-  </si>
-  <si>
-    <t>icon_predict_resource_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">반격 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 증가 </t>
-  </si>
-  <si>
-    <t>ap_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">디버프 저항률 증가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">디버프 적중률 증가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">계수 증가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">회피율 증가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">피해 무효화 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">피해량 일부 반사_비율 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">피해량 일부 반사 </t>
-  </si>
-  <si>
-    <t>icon_predict_resource_cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">행동 무효화 </t>
-  </si>
-  <si>
-    <t>action_cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도발  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">기절 </t>
-  </si>
-  <si>
-    <t>icon_predict_resource_armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">방어도 감소 </t>
-  </si>
-  <si>
-    <t>armor_down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어도 </t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 회복 효과_지속 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 회복 효과 </t>
-  </si>
-  <si>
-    <t>heal</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">대미지 타입 효과_지속 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">대미지 가함 </t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>화면에 표시할 ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동 예시 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>predict_resource_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>predict_resource_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -985,19 +1082,19 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="19.3984375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="3"/>
+    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1087,7 +1184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1110,7 +1207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1133,7 +1230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1156,7 +1253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1179,7 +1276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1202,7 +1299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1225,7 +1322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1248,7 +1345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1271,7 +1368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1294,7 +1391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1317,7 +1414,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1340,7 +1437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1363,7 +1460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1386,7 +1483,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1409,7 +1506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1432,7 +1529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1455,7 +1552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1478,425 +1575,425 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11"/>
       <c r="C167" s="11"/>
     </row>
-    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11"/>
       <c r="C168" s="11"/>
     </row>
-    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11"/>
       <c r="C169" s="11"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
@@ -1909,702 +2006,602 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778763CB-058A-493E-8E8A-851F3B9DA903}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="3"/>
+    <col min="1" max="1" width="23.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="3"/>
+    <col min="5" max="5" width="8.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>101</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>201</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>202</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>301</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>302</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>401</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>402</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>403</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>501</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>502</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>503</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>504</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>505</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>506</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>507</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>508</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>509</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>601</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>602</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>603</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>604</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>605</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>606</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>701</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>701</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="11"/>
-      <c r="C148" s="11"/>
-    </row>
-    <row r="149" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11"/>
-      <c r="C149" s="11"/>
-    </row>
-    <row r="150" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
-      <c r="C150" s="11"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="11"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/abnormal.xlsx
+++ b/GameData/Excel/abnormal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68B29C-A478-45DD-BBD9-8E4A149DEC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290B740-E022-4728-BB67-FE61A421EB8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15825" windowHeight="15585" activeTab="1" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="15825" windowHeight="15585" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="abnormal" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="207">
   <si>
     <t>int</t>
   </si>
@@ -206,436 +195,528 @@
     <t>반격</t>
   </si>
   <si>
+    <t>abnormal_desc_dot_skill_damage</t>
+  </si>
+  <si>
+    <t>abnormal_name_dot_heal</t>
+  </si>
+  <si>
+    <t>abnormal_desc_dot_heal</t>
+  </si>
+  <si>
+    <t>icon_abnormal_stun</t>
+  </si>
+  <si>
+    <t>abnormal_name_stun</t>
+  </si>
+  <si>
+    <t>abnormal_desc_stun</t>
+  </si>
+  <si>
+    <t>icon_abnormal_reflect_damage</t>
+  </si>
+  <si>
+    <t>abnormal_name_reflect_damage</t>
+  </si>
+  <si>
+    <t>abnormal_desc_reflect_damage</t>
+  </si>
+  <si>
+    <t>icon_abnormal_reflect_damage_per</t>
+  </si>
+  <si>
+    <t>abnormal_name_reflect_damage_per</t>
+  </si>
+  <si>
+    <t>abnormal_desc_reflect_damage_per</t>
+  </si>
+  <si>
+    <t>icon_abnormal_damage_invincible</t>
+  </si>
+  <si>
+    <t>abnormal_name_damage_invincible</t>
+  </si>
+  <si>
+    <t>abnormal_desc_damage_invincible</t>
+  </si>
+  <si>
+    <t>icon_abnormal_avoid_up</t>
+  </si>
+  <si>
+    <t>abnormal_name_avoid_up</t>
+  </si>
+  <si>
+    <t>abnormal_desc_avoid_up</t>
+  </si>
+  <si>
+    <t>icon_abnormal_avoid_down</t>
+  </si>
+  <si>
+    <t>abnormal_name_avoid_down</t>
+  </si>
+  <si>
+    <t>abnormal_desc_avoid_down</t>
+  </si>
+  <si>
+    <t>icon_abnormal_all_up_per</t>
+  </si>
+  <si>
+    <t>abnormal_name_all_up_per</t>
+  </si>
+  <si>
+    <t>abnormal_desc_all_up_per</t>
+  </si>
+  <si>
+    <t>icon_abnormal_all_down_per</t>
+  </si>
+  <si>
+    <t>abnormal_name_all_down_per</t>
+  </si>
+  <si>
+    <t>abnormal_desc_all_down_per</t>
+  </si>
+  <si>
+    <t>icon_abnormal_dot_draw</t>
+  </si>
+  <si>
+    <t>abnormal_name_dot_draw</t>
+  </si>
+  <si>
+    <t>abnormal_desc_dot_draw</t>
+  </si>
+  <si>
+    <t>icon_abnormal_debuff_accuracy_up</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_accuracy_up</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_accuracy_up</t>
+  </si>
+  <si>
+    <t>icon_abnormal_debuff_accuracy_down</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_accuracy_down</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_accuracy_down</t>
+  </si>
+  <si>
+    <t>icon_abnormal_debuff_resistance_up</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_resistance_up</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_resistance_up</t>
+  </si>
+  <si>
+    <t>icon_abnormal_debuff_resistance_down</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_resistance_down</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_resistance_down</t>
+  </si>
+  <si>
+    <t>icon_abnormal_damage_spread</t>
+  </si>
+  <si>
+    <t>abnormal_name_damage_spread</t>
+  </si>
+  <si>
+    <t>abnormal_desc_damage_spread</t>
+  </si>
+  <si>
+    <t>icon_abnormal_provoke</t>
+  </si>
+  <si>
+    <t>abnormal_name_provoke</t>
+  </si>
+  <si>
+    <t>abnormal_desc_provoke</t>
+  </si>
+  <si>
+    <t>icon_abnormal_counter</t>
+  </si>
+  <si>
+    <t>abnormal_name_counter</t>
+  </si>
+  <si>
+    <t>abnormal_desc_counter</t>
+  </si>
+  <si>
+    <t>abnormal_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱노멀 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_abnormal_bg_buff</t>
+  </si>
+  <si>
+    <t>icon_abnormal_bg_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_abnormal_bg_debuff</t>
+  </si>
+  <si>
+    <t>icon_abnormal_bg_debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_abnormal_dot_skill_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_abnormal_dot_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dispel</t>
+  </si>
+  <si>
+    <t>debuff_dispel</t>
+  </si>
+  <si>
+    <t>ap_stop</t>
+  </si>
+  <si>
+    <t>ap_up</t>
+  </si>
+  <si>
+    <t>action_cancel</t>
+  </si>
+  <si>
+    <t>armor_down</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>화면에 표시할 ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict_resource_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>fusion_level_up</t>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot_amor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_up_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_down_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>invalid_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_proportion_given_damage</t>
+  </si>
+  <si>
+    <t>heal_proportion_taken_damage</t>
+  </si>
+  <si>
+    <t>damage_proportion_overheal</t>
+  </si>
+  <si>
+    <t>give_damage_up_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_down_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_true_damage_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 가함 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 감소 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합 레벨업 (value_1 = 레벨업 수치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_지속 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발  (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격 (피격 시 피해를 준 대상에게 자신 공격력 비례 피해, value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 방어도 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 감소 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 감소 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 회복량 비례 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력, 피해감소 무시 Damage Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_predict_resource_attack</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_cc</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_heal</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_armor</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_buff</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_debuff</t>
+  </si>
+  <si>
+    <t>icon_predict_resource_etc</t>
+  </si>
+  <si>
     <t>abnormal_name_dot_skill_damage</t>
-  </si>
-  <si>
-    <t>abnormal_desc_dot_skill_damage</t>
-  </si>
-  <si>
-    <t>abnormal_name_dot_heal</t>
-  </si>
-  <si>
-    <t>abnormal_desc_dot_heal</t>
-  </si>
-  <si>
-    <t>icon_abnormal_stun</t>
-  </si>
-  <si>
-    <t>abnormal_name_stun</t>
-  </si>
-  <si>
-    <t>abnormal_desc_stun</t>
-  </si>
-  <si>
-    <t>icon_abnormal_reflect_damage</t>
-  </si>
-  <si>
-    <t>abnormal_name_reflect_damage</t>
-  </si>
-  <si>
-    <t>abnormal_desc_reflect_damage</t>
-  </si>
-  <si>
-    <t>icon_abnormal_reflect_damage_per</t>
-  </si>
-  <si>
-    <t>abnormal_name_reflect_damage_per</t>
-  </si>
-  <si>
-    <t>abnormal_desc_reflect_damage_per</t>
-  </si>
-  <si>
-    <t>icon_abnormal_damage_invincible</t>
-  </si>
-  <si>
-    <t>abnormal_name_damage_invincible</t>
-  </si>
-  <si>
-    <t>abnormal_desc_damage_invincible</t>
-  </si>
-  <si>
-    <t>icon_abnormal_avoid_up</t>
-  </si>
-  <si>
-    <t>abnormal_name_avoid_up</t>
-  </si>
-  <si>
-    <t>abnormal_desc_avoid_up</t>
-  </si>
-  <si>
-    <t>icon_abnormal_avoid_down</t>
-  </si>
-  <si>
-    <t>abnormal_name_avoid_down</t>
-  </si>
-  <si>
-    <t>abnormal_desc_avoid_down</t>
-  </si>
-  <si>
-    <t>icon_abnormal_all_up_per</t>
-  </si>
-  <si>
-    <t>abnormal_name_all_up_per</t>
-  </si>
-  <si>
-    <t>abnormal_desc_all_up_per</t>
-  </si>
-  <si>
-    <t>icon_abnormal_all_down_per</t>
-  </si>
-  <si>
-    <t>abnormal_name_all_down_per</t>
-  </si>
-  <si>
-    <t>abnormal_desc_all_down_per</t>
-  </si>
-  <si>
-    <t>icon_abnormal_dot_draw</t>
-  </si>
-  <si>
-    <t>abnormal_name_dot_draw</t>
-  </si>
-  <si>
-    <t>abnormal_desc_dot_draw</t>
-  </si>
-  <si>
-    <t>icon_abnormal_debuff_accuracy_up</t>
-  </si>
-  <si>
-    <t>abnormal_name_debuff_accuracy_up</t>
-  </si>
-  <si>
-    <t>abnormal_desc_debuff_accuracy_up</t>
-  </si>
-  <si>
-    <t>icon_abnormal_debuff_accuracy_down</t>
-  </si>
-  <si>
-    <t>abnormal_name_debuff_accuracy_down</t>
-  </si>
-  <si>
-    <t>abnormal_desc_debuff_accuracy_down</t>
-  </si>
-  <si>
-    <t>icon_abnormal_debuff_resistance_up</t>
-  </si>
-  <si>
-    <t>abnormal_name_debuff_resistance_up</t>
-  </si>
-  <si>
-    <t>abnormal_desc_debuff_resistance_up</t>
-  </si>
-  <si>
-    <t>icon_abnormal_debuff_resistance_down</t>
-  </si>
-  <si>
-    <t>abnormal_name_debuff_resistance_down</t>
-  </si>
-  <si>
-    <t>abnormal_desc_debuff_resistance_down</t>
-  </si>
-  <si>
-    <t>icon_abnormal_damage_spread</t>
-  </si>
-  <si>
-    <t>abnormal_name_damage_spread</t>
-  </si>
-  <si>
-    <t>abnormal_desc_damage_spread</t>
-  </si>
-  <si>
-    <t>icon_abnormal_provoke</t>
-  </si>
-  <si>
-    <t>abnormal_name_provoke</t>
-  </si>
-  <si>
-    <t>abnormal_desc_provoke</t>
-  </si>
-  <si>
-    <t>icon_abnormal_counter</t>
-  </si>
-  <si>
-    <t>abnormal_name_counter</t>
-  </si>
-  <si>
-    <t>abnormal_desc_counter</t>
-  </si>
-  <si>
-    <t>abnormal_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱노멀 배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_abnormal_bg_buff</t>
-  </si>
-  <si>
-    <t>icon_abnormal_bg_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_abnormal_bg_debuff</t>
-  </si>
-  <si>
-    <t>icon_abnormal_bg_debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_abnormal_dot_skill_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_abnormal_dot_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_dispel</t>
-  </si>
-  <si>
-    <t>debuff_dispel</t>
-  </si>
-  <si>
-    <t>ap_stop</t>
-  </si>
-  <si>
-    <t>ap_up</t>
-  </si>
-  <si>
-    <t>action_cancel</t>
-  </si>
-  <si>
-    <t>armor_down</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>heal</t>
-  </si>
-  <si>
-    <t>화면에 표시할 ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>predict_resource_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>fusion_level_up</t>
-  </si>
-  <si>
-    <t>stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot_amor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot_armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>take_damage_up_buff</t>
+  </si>
+  <si>
+    <t>give_damage_up_fixed</t>
+  </si>
+  <si>
+    <t>주는 피해량 고정 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>take_damage_down_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_damage_up_buff</t>
-  </si>
-  <si>
-    <t>give_damage_down_buff</t>
-  </si>
-  <si>
-    <t>invalid_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ignore_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal_proportion_given_damage</t>
-  </si>
-  <si>
-    <t>heal_proportion_taken_damage</t>
-  </si>
-  <si>
-    <t>damage_proportion_overheal</t>
-  </si>
-  <si>
-    <t>give_damage_up_fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_damage_down_fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_true_damage_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 가함 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과 (value_1 = 회복 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 타입 효과_지속 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과_지속 (value_1 = 회복 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우 (원소 획득, value_1 = 드로우 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (value_1 = 방어도 증감값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 감소 (value_1 = 방어도 증감값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 해제 (value_1 = 해제 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 해제 (value_1 = 해제 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 증가 (value_1 = 증감량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 감소 (value_1 = 증감량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동 무효화 (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합 레벨업 (value_1 = 레벨업 수치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절 (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 무효화 (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우_지속 (원소 획득, value_1 = 드로우 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도발  (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반격 (피격 시 피해를 준 대상에게 자신 공격력 비례 피해, value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속 방어도 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 피해량 증가 (%) 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 피해량 감소 (%) 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주는 피해량 증가 (%)_버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주는 피해량 감소 (%)_버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 무효화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준 피해량 비례 회복 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받은 피해량 비례 회복 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초과 회복량 비례 피해 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 피해량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 피해량 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력, 피해감소 무시 Damage Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_predict_resource_attack</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_cc</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_heal</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_armor</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_buff</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_debuff</t>
-  </si>
-  <si>
-    <t>icon_predict_resource_etc</t>
+  </si>
+  <si>
+    <t>icon_abnormal_dot_armor</t>
+  </si>
+  <si>
+    <t>abnormal_name_dot_armor</t>
+  </si>
+  <si>
+    <t>abnormal_desc_dot_armor</t>
+  </si>
+  <si>
+    <t>icon_abnormal_give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>icon_abnormal_give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>icon_abnormal_take_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_take_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_take_damage_up_buff</t>
+  </si>
+  <si>
+    <t>icon_abnormal_take_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_take_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_take_damage_down_buff</t>
+  </si>
+  <si>
+    <t>icon_abnormal_give_damage_up_fixed</t>
+  </si>
+  <si>
+    <t>abnormal_name_give_damage_up_fixed</t>
+  </si>
+  <si>
+    <t>abnormal_desc_give_damage_up_fixed</t>
   </si>
 </sst>
 </file>
@@ -782,9 +863,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -822,7 +903,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -928,7 +1009,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1070,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1080,9 +1161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1108,7 +1189,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>27</v>
@@ -1131,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -1172,16 +1253,16 @@
         <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1195,16 +1276,16 @@
         <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1218,16 +1299,16 @@
         <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1241,16 +1322,16 @@
         <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1264,16 +1345,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1287,16 +1368,16 @@
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,16 +1391,16 @@
         <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1333,16 +1414,16 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1356,16 +1437,16 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1379,16 +1460,16 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1402,16 +1483,16 @@
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1425,16 +1506,16 @@
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1448,16 +1529,16 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1471,16 +1552,16 @@
         <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1494,16 +1575,16 @@
         <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1517,16 +1598,16 @@
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1540,16 +1621,16 @@
         <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1563,35 +1644,155 @@
         <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -2008,9 +2209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778763CB-058A-493E-8E8A-851F3B9DA903}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="A24:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2031,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2042,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2056,24 +2257,24 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2082,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2094,122 +2295,122 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2217,10 +2418,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2228,10 +2429,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2239,10 +2440,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2250,10 +2451,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -2262,10 +2463,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -2274,155 +2475,155 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
